--- a/2025/11/2025-11-14/14_combined_confidence.xlsx
+++ b/2025/11/2025-11-14/14_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,56 +637,6 @@
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Finland  - Malta: 16:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>47</v>
-      </c>
-      <c r="D9" t="n">
-        <v>89</v>
-      </c>
-      <c r="E9" t="n">
-        <v>86</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Gibraltar - Montenegro : 18:45</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Montenegro</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" t="n">
-        <v>83</v>
-      </c>
-      <c r="E10" t="n">
-        <v>84</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
